--- a/General Results/Average RPD Data Large Instances.xlsx
+++ b/General Results/Average RPD Data Large Instances.xlsx
@@ -599,99 +599,99 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,27 +699,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,31 +727,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,23 +759,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A529" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -22722,7 +22722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M541"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A394" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -66019,10 +66019,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:J542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361:E542"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66034,7 +66034,7 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
@@ -66043,7 +66043,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -66057,7 +66057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>MIN(ILS_RVND_1!L2, ILS_RVND_2!L2, AG_LS!L2)</f>
         <v>272628.59999999998</v>
@@ -66075,7 +66075,7 @@
         <v>0.47705926670937499</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>MIN(ILS_RVND_1!L3, ILS_RVND_2!L3, AG_LS!L3)</f>
         <v>277153.40000000002</v>
@@ -66092,8 +66092,9 @@
         <f>100 * ((AG_LS!L3-A4)/A4)</f>
         <v>0.92418133784393941</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>MIN(ILS_RVND_1!L4, ILS_RVND_2!L4, AG_LS!L4)</f>
         <v>274257.40000000002</v>
@@ -66111,7 +66112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>MIN(ILS_RVND_1!L5, ILS_RVND_2!L5, AG_LS!L5)</f>
         <v>268834.8</v>
@@ -66129,7 +66130,7 @@
         <v>2.5152993585651857</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>MIN(ILS_RVND_1!L6, ILS_RVND_2!L6, AG_LS!L6)</f>
         <v>259685.6</v>
@@ -66147,7 +66148,7 @@
         <v>1.0378704094489577</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>MIN(ILS_RVND_1!L7, ILS_RVND_2!L7, AG_LS!L7)</f>
         <v>270296.59999999998</v>
@@ -66165,7 +66166,7 @@
         <v>0.52816054659956324</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>MIN(ILS_RVND_1!L8, ILS_RVND_2!L8, AG_LS!L8)</f>
         <v>236799.6</v>
@@ -66183,7 +66184,7 @@
         <v>2.527538053273731</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>MIN(ILS_RVND_1!L9, ILS_RVND_2!L9, AG_LS!L9)</f>
         <v>309597</v>
@@ -66201,7 +66202,7 @@
         <v>1.8750827688898832</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>MIN(ILS_RVND_1!L10, ILS_RVND_2!L10, AG_LS!L10)</f>
         <v>251417</v>
@@ -66219,7 +66220,7 @@
         <v>0.75539840185827201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>MIN(ILS_RVND_1!L11, ILS_RVND_2!L11, AG_LS!L11)</f>
         <v>293640.40000000002</v>
@@ -66237,7 +66238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>MIN(ILS_RVND_1!L12, ILS_RVND_2!L12, AG_LS!L12)</f>
         <v>284967.8</v>
@@ -66255,7 +66256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>MIN(ILS_RVND_1!L13, ILS_RVND_2!L13, AG_LS!L13)</f>
         <v>264097.40000000002</v>
@@ -66273,7 +66274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>MIN(ILS_RVND_1!L14, ILS_RVND_2!L14, AG_LS!L14)</f>
         <v>254360</v>
@@ -66291,7 +66292,7 @@
         <v>0.97365938040572653</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>MIN(ILS_RVND_1!L15, ILS_RVND_2!L15, AG_LS!L15)</f>
         <v>312768.8</v>
@@ -75783,5 +75784,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/General Results/Average RPD Data Large Instances.xlsx
+++ b/General Results/Average RPD Data Large Instances.xlsx
@@ -11,7 +11,8 @@
     <sheet name="ILS_RVND_2" sheetId="4" r:id="rId2"/>
     <sheet name="AG_LS" sheetId="3" r:id="rId3"/>
     <sheet name="Average_RPD" sheetId="2" r:id="rId4"/>
-    <sheet name="Tables" sheetId="5" r:id="rId5"/>
+    <sheet name="Kruskall Wallis" sheetId="6" r:id="rId5"/>
+    <sheet name="Tables" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_1_FINAL_ILS_PROP_OBJ_F_100jobs" localSheetId="2">AG_LS!$A$362:$B$541</definedName>
@@ -430,7 +431,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>Average:</t>
   </si>
@@ -695,19 +696,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,12 +705,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,6 +726,24 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,99 +768,99 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -867,27 +868,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -895,31 +896,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,23 +928,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_50jobs" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="1_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2_FINAL_ILS_PROP_OBJ_F_80jobs" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4_FINAL_ILS_PROP_OBJ_F_100jobs" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1256,18 +1257,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22904,18 +22905,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
@@ -44555,18 +44556,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
       <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
@@ -66190,7 +66191,7 @@
   <dimension ref="A1:M542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:E542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66204,20 +66205,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -84618,10 +84619,5978 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E541"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9.6130780116246068</v>
+      </c>
+      <c r="C2">
+        <v>0.47705926670937499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>11.353207285207393</v>
+      </c>
+      <c r="C3">
+        <v>0.92418133784393941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3464723285497449</v>
+      </c>
+      <c r="B4">
+        <v>14.112144284894399</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>14.319723488179367</v>
+      </c>
+      <c r="C5">
+        <v>2.5152993585651857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>13.656051779536494</v>
+      </c>
+      <c r="C6">
+        <v>1.0378704094489577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>12.167152675986316</v>
+      </c>
+      <c r="C7">
+        <v>0.52816054659956324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>18.304338351922894</v>
+      </c>
+      <c r="C8">
+        <v>2.527538053273731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>13.18940429009325</v>
+      </c>
+      <c r="C9">
+        <v>1.8750827688898832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>11.904922897019693</v>
+      </c>
+      <c r="C10">
+        <v>0.75539840185827201</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.5833652317596505</v>
+      </c>
+      <c r="B11">
+        <v>10.448630365576387</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.59108432601859695</v>
+      </c>
+      <c r="B12">
+        <v>11.569307128735243</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.9519805950371605E-2</v>
+      </c>
+      <c r="B13">
+        <v>12.306444516303454</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>12.612439062745715</v>
+      </c>
+      <c r="C14">
+        <v>0.97365938040572653</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2.8126206961819724</v>
+      </c>
+      <c r="B15">
+        <v>13.756295384961678</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>14.606888372194907</v>
+      </c>
+      <c r="C16">
+        <v>0.28312987204001272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10.531754743710689</v>
+      </c>
+      <c r="C17">
+        <v>0.88498249905631343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>14.154209846043528</v>
+      </c>
+      <c r="C18">
+        <v>2.4086780607658254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>12.301219619138388</v>
+      </c>
+      <c r="C19">
+        <v>0.62745023395124389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>12.172618501739388</v>
+      </c>
+      <c r="C20">
+        <v>1.180523712575579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>14.362018723819094</v>
+      </c>
+      <c r="C21">
+        <v>1.185963968164867</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>11.970551906125431</v>
+      </c>
+      <c r="C22">
+        <v>0.20015720622088293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>13.144883545051933</v>
+      </c>
+      <c r="C23">
+        <v>0.80502666852250815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>13.42769006204289</v>
+      </c>
+      <c r="C24">
+        <v>1.1517385008268606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>16.743687182583376</v>
+      </c>
+      <c r="C25">
+        <v>1.4261462513762038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>11.154132069496708</v>
+      </c>
+      <c r="C26">
+        <v>0.44206997976503221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>12.256640575528202</v>
+      </c>
+      <c r="C27">
+        <v>0.69649911187452973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>12.429500959249246</v>
+      </c>
+      <c r="C28">
+        <v>1.1033533273235789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>12.984427300958842</v>
+      </c>
+      <c r="C29">
+        <v>0.76541213627811744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>12.994338873294431</v>
+      </c>
+      <c r="C30">
+        <v>1.2747071270062578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>14.363053270803611</v>
+      </c>
+      <c r="C31">
+        <v>1.4214564485937962</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4.2835074792857943</v>
+      </c>
+      <c r="B32">
+        <v>12.220304776390062</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>14.424359481886967</v>
+      </c>
+      <c r="C33">
+        <v>0.99352484789190476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.21598386228800656</v>
+      </c>
+      <c r="B34">
+        <v>14.388051226010512</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>14.104686451616624</v>
+      </c>
+      <c r="C35">
+        <v>1.1264434583760043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>12.484721022351692</v>
+      </c>
+      <c r="C36">
+        <v>0.84666246265842493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>15.50884123458963</v>
+      </c>
+      <c r="C37">
+        <v>2.0413126611996018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>12.36572486084628</v>
+      </c>
+      <c r="C38">
+        <v>0.85890093418496627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>11.548259014322371</v>
+      </c>
+      <c r="C39">
+        <v>0.28309548671540369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.98465545626982975</v>
+      </c>
+      <c r="B40">
+        <v>13.922724977953987</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>14.491781600132233</v>
+      </c>
+      <c r="C41">
+        <v>0.68728914086956294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>14.448761550328612</v>
+      </c>
+      <c r="C42">
+        <v>1.4462126230691013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.88627883772829508</v>
+      </c>
+      <c r="B43">
+        <v>13.85181793640465</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>16.305943341050128</v>
+      </c>
+      <c r="C44">
+        <v>1.8505636081347154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>13.499196226957977</v>
+      </c>
+      <c r="C45">
+        <v>0.56201562509773506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>13.004472299452633</v>
+      </c>
+      <c r="C46">
+        <v>1.192769358658073</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>7.3282240981055002</v>
+      </c>
+      <c r="C47">
+        <v>1.1768393821417784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10.833471151443929</v>
+      </c>
+      <c r="C48">
+        <v>1.1608390131988751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>11.191349275370586</v>
+      </c>
+      <c r="C49">
+        <v>1.0098597851663904</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>13.08385162367599</v>
+      </c>
+      <c r="C50">
+        <v>1.8679895617832287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10.114405680183044</v>
+      </c>
+      <c r="C51">
+        <v>0.94528184684578198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>11.417563548851138</v>
+      </c>
+      <c r="C52">
+        <v>1.6319660868989272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>9.3077004700631925</v>
+      </c>
+      <c r="C53">
+        <v>1.7117921653036134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>12.761636269055279</v>
+      </c>
+      <c r="C54">
+        <v>2.0449965685190161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10.958585048606938</v>
+      </c>
+      <c r="C55">
+        <v>1.4698538998570689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>13.046328426147797</v>
+      </c>
+      <c r="C56">
+        <v>1.6956636721348215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>11.158972772703644</v>
+      </c>
+      <c r="C57">
+        <v>1.2997682376027835</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10.769195508633329</v>
+      </c>
+      <c r="C58">
+        <v>1.3439790419556807</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>11.449951101534316</v>
+      </c>
+      <c r="C59">
+        <v>0.77953487617122985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10.758735043685432</v>
+      </c>
+      <c r="C60">
+        <v>1.403771844763396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>11.674326158619348</v>
+      </c>
+      <c r="C61">
+        <v>1.8402171805313166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10.113939422110414</v>
+      </c>
+      <c r="C62">
+        <v>1.7610102567890873</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>12.596248729259054</v>
+      </c>
+      <c r="C63">
+        <v>1.649339463112335</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>11.762705995966117</v>
+      </c>
+      <c r="C64">
+        <v>1.8593258648823507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>12.826135591053575</v>
+      </c>
+      <c r="C65">
+        <v>1.323355085390886</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>12.42898974414951</v>
+      </c>
+      <c r="C66">
+        <v>1.7944969919019529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>13.507443792679222</v>
+      </c>
+      <c r="C67">
+        <v>1.1291030006953566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>13.03876952438431</v>
+      </c>
+      <c r="C68">
+        <v>1.5927584509884951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>13.102691875938879</v>
+      </c>
+      <c r="C69">
+        <v>2.231603353146717</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>13.098805287507343</v>
+      </c>
+      <c r="C70">
+        <v>2.0397230487123785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>13.606054072262367</v>
+      </c>
+      <c r="C71">
+        <v>2.2165547572222151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>13.389835371758549</v>
+      </c>
+      <c r="C72">
+        <v>2.3021412431404817</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>13.779506488318017</v>
+      </c>
+      <c r="C73">
+        <v>3.5313184307429148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>14.822948312821808</v>
+      </c>
+      <c r="C74">
+        <v>1.3020690819767997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>12.408481582407298</v>
+      </c>
+      <c r="C75">
+        <v>2.9924426864280473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>12.561794849711486</v>
+      </c>
+      <c r="C76">
+        <v>3.2614187695576122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>13.724559928167446</v>
+      </c>
+      <c r="C77">
+        <v>0.58109118926950054</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>16.113291634461408</v>
+      </c>
+      <c r="C78">
+        <v>3.9636677019964264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>15.153184320691478</v>
+      </c>
+      <c r="C79">
+        <v>1.6553513584528037</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>13.30527231206881</v>
+      </c>
+      <c r="C80">
+        <v>2.2481322182461043</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>16.509615464572938</v>
+      </c>
+      <c r="C81">
+        <v>2.5046548388779266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>13.603556283359458</v>
+      </c>
+      <c r="C82">
+        <v>0.21828967797252133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>15.441023273948746</v>
+      </c>
+      <c r="C83">
+        <v>2.1849013096411225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>13.407015343808537</v>
+      </c>
+      <c r="C84">
+        <v>1.6602516881932834</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>14.231848877132434</v>
+      </c>
+      <c r="C85">
+        <v>3.4581309551496249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10.172103432094142</v>
+      </c>
+      <c r="C86">
+        <v>1.2595301547518394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>15.31650445584018</v>
+      </c>
+      <c r="C87">
+        <v>2.3042166882815391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>11.528890925579962</v>
+      </c>
+      <c r="C88">
+        <v>1.2437791016269673</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>14.269327246383954</v>
+      </c>
+      <c r="C89">
+        <v>0.9797691919111633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>14.42083071722598</v>
+      </c>
+      <c r="C90">
+        <v>3.2512954854320313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>14.346017196883176</v>
+      </c>
+      <c r="C91">
+        <v>1.1864109549696797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10.266407298028046</v>
+      </c>
+      <c r="C92">
+        <v>1.9748720691080524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10.104995185397629</v>
+      </c>
+      <c r="C93">
+        <v>2.8919743082611857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>7.1955377451834517</v>
+      </c>
+      <c r="C94">
+        <v>2.0011093297186777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>9.7670882413791453</v>
+      </c>
+      <c r="C95">
+        <v>2.5396246028288609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>7.6716169720440961</v>
+      </c>
+      <c r="C96">
+        <v>1.4309769253292743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>9.7545179226571381</v>
+      </c>
+      <c r="C97">
+        <v>2.0083090770595056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10.482884890432654</v>
+      </c>
+      <c r="C98">
+        <v>1.1084435817541014</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>6.2501965910242596</v>
+      </c>
+      <c r="C99">
+        <v>1.1260733869924919</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>8.174079331782778</v>
+      </c>
+      <c r="C100">
+        <v>2.029557711685563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>8.7730250083645736</v>
+      </c>
+      <c r="C101">
+        <v>1.8241113538768543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>9.8786786626960907</v>
+      </c>
+      <c r="C102">
+        <v>1.7579078410224029</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>8.5699277700842895</v>
+      </c>
+      <c r="C103">
+        <v>0.88773939927015733</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>10.320945445469262</v>
+      </c>
+      <c r="C104">
+        <v>1.6144686268577093</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>11.440193701359224</v>
+      </c>
+      <c r="C105">
+        <v>1.6110544977502514</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>9.4650375826317354</v>
+      </c>
+      <c r="C106">
+        <v>1.4142163913997843</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>10.534411037940526</v>
+      </c>
+      <c r="C107">
+        <v>1.6577004131094679</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>10.633182776272196</v>
+      </c>
+      <c r="C108">
+        <v>1.839365652915786</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>12.036073053399747</v>
+      </c>
+      <c r="C109">
+        <v>1.6536066526112509</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>11.006324341000248</v>
+      </c>
+      <c r="C110">
+        <v>1.2345176475965303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>10.001368446660985</v>
+      </c>
+      <c r="C111">
+        <v>2.4937659652110535</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>9.7480281302471194</v>
+      </c>
+      <c r="C112">
+        <v>1.3412105596474382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>12.35916564531446</v>
+      </c>
+      <c r="C113">
+        <v>1.8904855428078282</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>12.967939190182943</v>
+      </c>
+      <c r="C114">
+        <v>1.410976704912156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>14.059192163520626</v>
+      </c>
+      <c r="C115">
+        <v>1.9698257969198798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>10.732336802805751</v>
+      </c>
+      <c r="C116">
+        <v>2.1589687747482667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>13.298477236281226</v>
+      </c>
+      <c r="C117">
+        <v>1.9620980015178775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>11.692473338802296</v>
+      </c>
+      <c r="C118">
+        <v>2.3074753896636611</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>12.321966934160239</v>
+      </c>
+      <c r="C119">
+        <v>2.8039780654738715</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>9.3523099885998988</v>
+      </c>
+      <c r="C120">
+        <v>2.1340510301221078</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>12.306417843300116</v>
+      </c>
+      <c r="C121">
+        <v>1.1201809939092</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>13.709232669343759</v>
+      </c>
+      <c r="C122">
+        <v>2.1862286008665377</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>11.713371060114982</v>
+      </c>
+      <c r="C123">
+        <v>1.3721839719830398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>11.33914878237</v>
+      </c>
+      <c r="C124">
+        <v>2.6946107784431113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>13.045462851972234</v>
+      </c>
+      <c r="C125">
+        <v>3.2756953707959968</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>10.832302177739798</v>
+      </c>
+      <c r="C126">
+        <v>1.2415670727443535</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>14.415875352421406</v>
+      </c>
+      <c r="C127">
+        <v>3.8390907226197202</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>14.42881225398617</v>
+      </c>
+      <c r="C128">
+        <v>1.7290114075629093</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>14.556300369289014</v>
+      </c>
+      <c r="C129">
+        <v>3.3926854394295254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>14.142795038671807</v>
+      </c>
+      <c r="C130">
+        <v>1.9030951770526721</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>13.341603964828369</v>
+      </c>
+      <c r="C131">
+        <v>2.4847236482365651</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>15.661732564833244</v>
+      </c>
+      <c r="C132">
+        <v>1.9562037751412624</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>16.373823517707432</v>
+      </c>
+      <c r="C133">
+        <v>3.1451638446251637</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>15.891096341797029</v>
+      </c>
+      <c r="C134">
+        <v>3.5755141627912783</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>14.291873508152038</v>
+      </c>
+      <c r="C135">
+        <v>2.7445586940062809</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>13.136447069594626</v>
+      </c>
+      <c r="C136">
+        <v>2.8615618458420582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>7.5107800516028753</v>
+      </c>
+      <c r="C137">
+        <v>0.82476230869825939</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>8.9701022483944772</v>
+      </c>
+      <c r="C138">
+        <v>1.353127651255905</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>9.5240482621490177</v>
+      </c>
+      <c r="C139">
+        <v>1.9404950657261568</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>7.0818506603153075</v>
+      </c>
+      <c r="C140">
+        <v>1.7612911252910459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>9.2677608603502577</v>
+      </c>
+      <c r="C141">
+        <v>2.1248738578228217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>7.3694457592521374</v>
+      </c>
+      <c r="C142">
+        <v>2.4162056622193213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>9.0606862285568326</v>
+      </c>
+      <c r="C143">
+        <v>1.0610624694205566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>7.9867815535317783</v>
+      </c>
+      <c r="C144">
+        <v>1.4105244638114449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>7.6056470747203448</v>
+      </c>
+      <c r="C145">
+        <v>1.2697117346326372</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>8.2752384454333292</v>
+      </c>
+      <c r="C146">
+        <v>2.1236089119684181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>6.889696740464192</v>
+      </c>
+      <c r="C147">
+        <v>2.0439416426145858</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>8.1184713049546815</v>
+      </c>
+      <c r="C148">
+        <v>1.6333142321150196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>6.4624920015557734</v>
+      </c>
+      <c r="C149">
+        <v>1.726994801534026</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>8.6255985662791872</v>
+      </c>
+      <c r="C150">
+        <v>1.673674436709087</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>6.2051784055270867</v>
+      </c>
+      <c r="C151">
+        <v>1.6343937336606356</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>10.559196940188494</v>
+      </c>
+      <c r="C152">
+        <v>1.1497468504253143</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>11.851368146478912</v>
+      </c>
+      <c r="C153">
+        <v>2.7047104237486526</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>13.191527108766451</v>
+      </c>
+      <c r="C154">
+        <v>3.4097261507459642</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>10.438376186955896</v>
+      </c>
+      <c r="C155">
+        <v>2.6629500980620509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>8.0855828995280579</v>
+      </c>
+      <c r="C156">
+        <v>1.6829734079049741</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>8.205420879532598</v>
+      </c>
+      <c r="C157">
+        <v>1.608469511602461</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>8.0636867627428046</v>
+      </c>
+      <c r="C158">
+        <v>1.6542314817337342</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>14.049374511859547</v>
+      </c>
+      <c r="C159">
+        <v>3.0992741625944533</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>10.489115886806552</v>
+      </c>
+      <c r="C160">
+        <v>1.8941033784207966</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>12.792455116928572</v>
+      </c>
+      <c r="C161">
+        <v>2.401041583120795</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>9.4136623729211006</v>
+      </c>
+      <c r="C162">
+        <v>2.4147624486715307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>11.310334353324119</v>
+      </c>
+      <c r="C163">
+        <v>2.2580455872023184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>11.446359058196764</v>
+      </c>
+      <c r="C164">
+        <v>2.683118880079574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>10.792271799025709</v>
+      </c>
+      <c r="C165">
+        <v>1.5642647713141717</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>10.860113654068494</v>
+      </c>
+      <c r="C166">
+        <v>2.4968634429146563</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>10.949147288120672</v>
+      </c>
+      <c r="C167">
+        <v>2.3389147455688772</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>13.241099712830056</v>
+      </c>
+      <c r="C168">
+        <v>3.4608462441632759</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>13.765607580601596</v>
+      </c>
+      <c r="C169">
+        <v>2.4403086932791234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>11.163831293369393</v>
+      </c>
+      <c r="C170">
+        <v>1.8765057882153546</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>11.624774984998995</v>
+      </c>
+      <c r="C171">
+        <v>3.5009000600039961</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>11.087481404519606</v>
+      </c>
+      <c r="C172">
+        <v>1.0586879265153928</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>10.097891926247588</v>
+      </c>
+      <c r="C173">
+        <v>3.1214758005296246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>16.933533573333907</v>
+      </c>
+      <c r="C174">
+        <v>2.3833989223127858</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>12.731045683412603</v>
+      </c>
+      <c r="C175">
+        <v>1.5617548651024624</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>11.018933255093287</v>
+      </c>
+      <c r="C176">
+        <v>2.7139188930533109</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>14.373657555048672</v>
+      </c>
+      <c r="C177">
+        <v>2.2140845121075081</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>12.030294203320711</v>
+      </c>
+      <c r="C178">
+        <v>3.3721571175692882</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>14.150381120537434</v>
+      </c>
+      <c r="C179">
+        <v>1.5966581973213927</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>12.062563433249322</v>
+      </c>
+      <c r="C180">
+        <v>2.1900191904818076</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>12.867519112677794</v>
+      </c>
+      <c r="C181">
+        <v>2.7704325267108088</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>13.732131075434351</v>
+      </c>
+      <c r="C182">
+        <v>1.5898381532527464</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>12.325738415753737</v>
+      </c>
+      <c r="C183">
+        <v>0.8313282794100757</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>19.133659302189425</v>
+      </c>
+      <c r="C184">
+        <v>2.6715757712344064</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>11.434073720504459</v>
+      </c>
+      <c r="C185">
+        <v>1.2495111976744526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>12.168285028278547</v>
+      </c>
+      <c r="C186">
+        <v>1.5773140850494856</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>13.090190349224956</v>
+      </c>
+      <c r="C187">
+        <v>1.2530626879632905</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>15.40226092533889</v>
+      </c>
+      <c r="C188">
+        <v>0.97535554376919564</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0.5168202340768121</v>
+      </c>
+      <c r="B189">
+        <v>10.804089751564085</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>19.337942810530613</v>
+      </c>
+      <c r="C190">
+        <v>2.5206381798483828</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>11.188608510889678</v>
+      </c>
+      <c r="C191">
+        <v>2.7135522853674314</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>12.771090586297932</v>
+      </c>
+      <c r="C192">
+        <v>2.9158371811845005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>14.856462274216742</v>
+      </c>
+      <c r="C193">
+        <v>2.8982471482939358</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>16.666998482810197</v>
+      </c>
+      <c r="C194">
+        <v>0.93559511857371991</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>14.499568982352407</v>
+      </c>
+      <c r="C195">
+        <v>1.525860905084778</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>14.01623058363842</v>
+      </c>
+      <c r="C196">
+        <v>1.5330114696237798</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>16.295501673762402</v>
+      </c>
+      <c r="C197">
+        <v>1.4388769429452115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>16.877933876748134</v>
+      </c>
+      <c r="C198">
+        <v>2.413054962584444</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>11.831876860982847</v>
+      </c>
+      <c r="C199">
+        <v>0.81600498676952615</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>15.567112626336661</v>
+      </c>
+      <c r="C200">
+        <v>1.7073890350476333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>16.036902388297172</v>
+      </c>
+      <c r="C201">
+        <v>2.6885273115994366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>16.174519959053587</v>
+      </c>
+      <c r="C202">
+        <v>1.6766272704706355</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>15.416279115167175</v>
+      </c>
+      <c r="C203">
+        <v>2.3012844773895615</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>15.687458916959059</v>
+      </c>
+      <c r="C204">
+        <v>2.3083922294509698</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>11.539066211771845</v>
+      </c>
+      <c r="C205">
+        <v>1.5135339089808419</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>15.923625512518569</v>
+      </c>
+      <c r="C206">
+        <v>0.83561039954577754</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>16.167115130461269</v>
+      </c>
+      <c r="C207">
+        <v>1.9367814386927509</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>15.725604797278125</v>
+      </c>
+      <c r="C208">
+        <v>1.3871542093354856</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4.7451155537473424</v>
+      </c>
+      <c r="B209">
+        <v>12.716035777151536</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>15.289286580262655</v>
+      </c>
+      <c r="C210">
+        <v>0.81105053617939549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>14.443409915356709</v>
+      </c>
+      <c r="C211">
+        <v>0.69631197097945086</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>15.759000966842523</v>
+      </c>
+      <c r="C212">
+        <v>2.0311678801245319</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>17.811780265888313</v>
+      </c>
+      <c r="C213">
+        <v>1.4189377083591985</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>4.3192952481804605</v>
+      </c>
+      <c r="B214">
+        <v>14.461579637136824</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>0.14266211604095563</v>
+      </c>
+      <c r="B215">
+        <v>13.615927189988625</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4.080018030840753</v>
+      </c>
+      <c r="B216">
+        <v>14.663205609732119</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>0.19384325719106998</v>
+      </c>
+      <c r="B217">
+        <v>14.776833113019954</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>17.431036445933838</v>
+      </c>
+      <c r="C218">
+        <v>1.7883202528828925</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>0.10177359324790387</v>
+      </c>
+      <c r="B219">
+        <v>12.130962913466568</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>14.851172060133717</v>
+      </c>
+      <c r="C220">
+        <v>1.7054449761727364</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>1.266141280850889</v>
+      </c>
+      <c r="B221">
+        <v>12.874210541595858</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>17.179003621178733</v>
+      </c>
+      <c r="C222">
+        <v>3.7707957226164943</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>15.327311858252344</v>
+      </c>
+      <c r="C223">
+        <v>2.033600897860822</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>4.7153000419283631</v>
+      </c>
+      <c r="B224">
+        <v>11.990506825006241</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3.4570413385244398</v>
+      </c>
+      <c r="B225">
+        <v>12.004714780792266</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2.0287064267264099</v>
+      </c>
+      <c r="B226">
+        <v>15.372830622954508</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>15.317562582828995</v>
+      </c>
+      <c r="C227">
+        <v>1.4581518189273519</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>15.4230465319561</v>
+      </c>
+      <c r="C228">
+        <v>2.6074124336072977</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>15.744310578027759</v>
+      </c>
+      <c r="C229">
+        <v>3.243323405023228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>14.87590568367324</v>
+      </c>
+      <c r="C230">
+        <v>2.0352703126142075</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>15.748021582181499</v>
+      </c>
+      <c r="C231">
+        <v>1.8513445871041281</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>15.711210628373065</v>
+      </c>
+      <c r="C232">
+        <v>1.6101242364921398</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>15.478937190856945</v>
+      </c>
+      <c r="C233">
+        <v>2.3147734507240387</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>14.295803133785363</v>
+      </c>
+      <c r="C234">
+        <v>1.3156173161204865</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>17.452885426036687</v>
+      </c>
+      <c r="C235">
+        <v>4.0035020668227981</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>17.052220947559281</v>
+      </c>
+      <c r="C236">
+        <v>5.0704701785138573</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>16.477232195543042</v>
+      </c>
+      <c r="C237">
+        <v>2.7670089143506269</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>16.295360370607519</v>
+      </c>
+      <c r="C238">
+        <v>2.22969481375879</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>16.463487494270009</v>
+      </c>
+      <c r="C239">
+        <v>1.9209393586695582</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>14.7648007978975</v>
+      </c>
+      <c r="C240">
+        <v>2.0643591455847732</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>14.063031030239173</v>
+      </c>
+      <c r="C241">
+        <v>1.4048073894896178</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>18.139832085605203</v>
+      </c>
+      <c r="C242">
+        <v>3.7225661771613758</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>19.703857311322643</v>
+      </c>
+      <c r="C243">
+        <v>4.1749270763829882</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>14.174233788440121</v>
+      </c>
+      <c r="C244">
+        <v>1.1841304178864738</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>13.631089946550718</v>
+      </c>
+      <c r="C245">
+        <v>1.5865134549142457</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>18.690569164650288</v>
+      </c>
+      <c r="C246">
+        <v>2.9230499248071471</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>18.79619973825934</v>
+      </c>
+      <c r="C247">
+        <v>4.3070223897572619</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>16.344047461495883</v>
+      </c>
+      <c r="C248">
+        <v>2.589435007264663</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>19.600153661410289</v>
+      </c>
+      <c r="C249">
+        <v>3.3131435474614888</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>17.963434669142885</v>
+      </c>
+      <c r="C250">
+        <v>2.4350951665446496</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>17.308157942072974</v>
+      </c>
+      <c r="C251">
+        <v>3.0347490777604023</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>18.113428643103514</v>
+      </c>
+      <c r="C252">
+        <v>3.696931565581703</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>17.890384014447271</v>
+      </c>
+      <c r="C253">
+        <v>2.8368617572273216</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>16.478556280593878</v>
+      </c>
+      <c r="C254">
+        <v>1.9259643128393777</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>17.114456417290786</v>
+      </c>
+      <c r="C255">
+        <v>1.7952545472772541</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>20.327895133182363</v>
+      </c>
+      <c r="C256">
+        <v>2.6479673018928818</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>0</v>
+      </c>
+      <c r="B257">
+        <v>18.92885612785112</v>
+      </c>
+      <c r="C257">
+        <v>0.49418839264350434</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>17.171813840426449</v>
+      </c>
+      <c r="C258">
+        <v>2.3026544550886396</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>17.765120108823247</v>
+      </c>
+      <c r="C259">
+        <v>2.5302900558854557</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>19.084147146478916</v>
+      </c>
+      <c r="C260">
+        <v>3.5980953249930128</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>0.12200394587098919</v>
+      </c>
+      <c r="B261">
+        <v>14.72675147031458</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>22.524526309791781</v>
+      </c>
+      <c r="C262">
+        <v>5.2140418658324448</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>19.172994799869922</v>
+      </c>
+      <c r="C263">
+        <v>2.7782280275559823</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>17.78985158624943</v>
+      </c>
+      <c r="C264">
+        <v>3.4216713523999589</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>17.058383134668333</v>
+      </c>
+      <c r="C265">
+        <v>2.2937432232360604</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>19.341996077646538</v>
+      </c>
+      <c r="C266">
+        <v>3.54638830454053</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>20.387183845247343</v>
+      </c>
+      <c r="C267">
+        <v>3.0559402967950833</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>19.596488787179506</v>
+      </c>
+      <c r="C268">
+        <v>2.700043125207567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>16.443658730455038</v>
+      </c>
+      <c r="C269">
+        <v>4.4208666914236838</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>18.553454133014956</v>
+      </c>
+      <c r="C270">
+        <v>3.4187718772713365</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>20.473544030228997</v>
+      </c>
+      <c r="C271">
+        <v>4.5322725328380491</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>14.229799657128456</v>
+      </c>
+      <c r="C272">
+        <v>2.3375596420075371</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>12.703621578066466</v>
+      </c>
+      <c r="C273">
+        <v>1.184427543448819</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>15.270471588726666</v>
+      </c>
+      <c r="C274">
+        <v>2.5933969680761404</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>16.270624023385292</v>
+      </c>
+      <c r="C275">
+        <v>2.2696823142872464</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>15.313286523176577</v>
+      </c>
+      <c r="C276">
+        <v>2.569747523319823</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>16.363232481341271</v>
+      </c>
+      <c r="C277">
+        <v>3.4040614591445388</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>15.771755313765276</v>
+      </c>
+      <c r="C278">
+        <v>3.5330803369136894</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>17.0231032147809</v>
+      </c>
+      <c r="C279">
+        <v>2.238946839497423</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>13.728341279450365</v>
+      </c>
+      <c r="C280">
+        <v>2.1571985898458306</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>15.435403436402554</v>
+      </c>
+      <c r="C281">
+        <v>1.9131980326659903</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>15.741995179536811</v>
+      </c>
+      <c r="C282">
+        <v>1.5905319824046318</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>13.577579746920293</v>
+      </c>
+      <c r="C283">
+        <v>2.3210414035187124</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>14.251867111319774</v>
+      </c>
+      <c r="C284">
+        <v>1.9685275722696234</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>18.14964415505753</v>
+      </c>
+      <c r="C285">
+        <v>2.1521426408237341</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>16.402284743172071</v>
+      </c>
+      <c r="C286">
+        <v>1.5623809895690219</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>17.335249081658375</v>
+      </c>
+      <c r="C287">
+        <v>2.9706629691260273</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>15.141390183203082</v>
+      </c>
+      <c r="C288">
+        <v>2.5371170880067009</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>16.326459774364</v>
+      </c>
+      <c r="C289">
+        <v>2.2940788699166745</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>17.391457257185792</v>
+      </c>
+      <c r="C290">
+        <v>3.5504660223968338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>16.79920073349917</v>
+      </c>
+      <c r="C291">
+        <v>3.1114395179125554</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>16.7301037133652</v>
+      </c>
+      <c r="C292">
+        <v>3.0032795376442345</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>16.05161972861038</v>
+      </c>
+      <c r="C293">
+        <v>2.2705854773095027</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>17.243887297535846</v>
+      </c>
+      <c r="C294">
+        <v>3.2569997916317872</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>17.588161359494663</v>
+      </c>
+      <c r="C295">
+        <v>3.8092461319016273</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>17.529150219017474</v>
+      </c>
+      <c r="C296">
+        <v>2.4373598159466772</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>16.901897338026462</v>
+      </c>
+      <c r="C297">
+        <v>2.1050141250173482</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>17.323839085707018</v>
+      </c>
+      <c r="C298">
+        <v>2.3266723641884219</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>18.90693646887248</v>
+      </c>
+      <c r="C299">
+        <v>2.4982955063348871</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>18.14484080280868</v>
+      </c>
+      <c r="C300">
+        <v>3.2905368929873733</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>18.694958465674301</v>
+      </c>
+      <c r="C301">
+        <v>3.2345903536441662</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>17.42646630595452</v>
+      </c>
+      <c r="C302">
+        <v>4.1779562541772624</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>16.458969213407642</v>
+      </c>
+      <c r="C303">
+        <v>3.4691029456706239</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>17.607143575028765</v>
+      </c>
+      <c r="C304">
+        <v>2.8239119182701282</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>15.979946475830287</v>
+      </c>
+      <c r="C305">
+        <v>2.7591900490036876</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>19.590041884363689</v>
+      </c>
+      <c r="C306">
+        <v>4.3839108042803909</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>18.012777503851332</v>
+      </c>
+      <c r="C307">
+        <v>3.5808564382801564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>18.202598320091035</v>
+      </c>
+      <c r="C308">
+        <v>2.7373613342192211</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>17.901352601523946</v>
+      </c>
+      <c r="C309">
+        <v>2.857532375820806</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>18.532157191564185</v>
+      </c>
+      <c r="C310">
+        <v>4.2957982100502186</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>19.50113501438166</v>
+      </c>
+      <c r="C311">
+        <v>3.6782405653057322</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>16.961920703908397</v>
+      </c>
+      <c r="C312">
+        <v>3.1431286164444101</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>18.095552684278797</v>
+      </c>
+      <c r="C313">
+        <v>2.3419763630656618</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>18.352069659181776</v>
+      </c>
+      <c r="C314">
+        <v>2.9736290452530718</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>21.340876190721225</v>
+      </c>
+      <c r="C315">
+        <v>4.1712630283850443</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>19.634999906593848</v>
+      </c>
+      <c r="C316">
+        <v>2.9432588782544187</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>13.32518637999881</v>
+      </c>
+      <c r="C317">
+        <v>2.188050604312374</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>12.622986360110531</v>
+      </c>
+      <c r="C318">
+        <v>2.4349152451702909</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>14.504430082691352</v>
+      </c>
+      <c r="C319">
+        <v>1.7551033056133616</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>11.744377975415405</v>
+      </c>
+      <c r="C320">
+        <v>2.2404413560181533</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>14.014687109434783</v>
+      </c>
+      <c r="C321">
+        <v>2.34353985641317</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>0</v>
+      </c>
+      <c r="B322">
+        <v>13.562935133459824</v>
+      </c>
+      <c r="C322">
+        <v>2.493139915486787</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>0</v>
+      </c>
+      <c r="B323">
+        <v>13.763826047673842</v>
+      </c>
+      <c r="C323">
+        <v>2.1729923555279487</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>12.544362755828868</v>
+      </c>
+      <c r="C324">
+        <v>2.002647115284236</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>13.669961179890825</v>
+      </c>
+      <c r="C325">
+        <v>2.0109917688397956</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>14.248643006038227</v>
+      </c>
+      <c r="C326">
+        <v>2.7053367617301403</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>12.794204570309647</v>
+      </c>
+      <c r="C327">
+        <v>2.4025241899365586</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>0</v>
+      </c>
+      <c r="B328">
+        <v>15.279700979626767</v>
+      </c>
+      <c r="C328">
+        <v>2.4582793412221648</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>13.110951460169201</v>
+      </c>
+      <c r="C329">
+        <v>1.583775171947063</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>12.6040713400978</v>
+      </c>
+      <c r="C330">
+        <v>2.2128635308569051</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>0</v>
+      </c>
+      <c r="B331">
+        <v>15.343344114799532</v>
+      </c>
+      <c r="C331">
+        <v>2.4849784758232722</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>17.105734002256291</v>
+      </c>
+      <c r="C332">
+        <v>2.5439659600353259</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>0</v>
+      </c>
+      <c r="B333">
+        <v>14.705082630576497</v>
+      </c>
+      <c r="C333">
+        <v>1.668945908154712</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>14.095581537459715</v>
+      </c>
+      <c r="C334">
+        <v>2.1295160606017198</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>14.064918271985253</v>
+      </c>
+      <c r="C335">
+        <v>3.2305545460271383</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>15.410116450104336</v>
+      </c>
+      <c r="C336">
+        <v>3.6758422637809103</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>17.888675491317702</v>
+      </c>
+      <c r="C337">
+        <v>4.3219737952384198</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <v>16.728244782092869</v>
+      </c>
+      <c r="C338">
+        <v>3.804782077902702</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>17.323804857890675</v>
+      </c>
+      <c r="C339">
+        <v>3.6471764544567646</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>15.729109136455083</v>
+      </c>
+      <c r="C340">
+        <v>3.3633291747208851</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>17.108703003001331</v>
+      </c>
+      <c r="C341">
+        <v>2.6355556362864139</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>16.168801378358811</v>
+      </c>
+      <c r="C342">
+        <v>2.4924302409749064</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>17.191996334843836</v>
+      </c>
+      <c r="C343">
+        <v>3.8461971541554272</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>17.350230088278686</v>
+      </c>
+      <c r="C344">
+        <v>3.2509518880565205</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>15.316167971265212</v>
+      </c>
+      <c r="C345">
+        <v>3.3495669671709019</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>13.975916969877384</v>
+      </c>
+      <c r="C346">
+        <v>2.3757103287782546</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>17.928676000744144</v>
+      </c>
+      <c r="C347">
+        <v>4.0622487523557664</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>16.843762684270917</v>
+      </c>
+      <c r="C348">
+        <v>3.4944444672930599</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>19.15727576660278</v>
+      </c>
+      <c r="C349">
+        <v>4.6252427906881195</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>16.28659784452968</v>
+      </c>
+      <c r="C350">
+        <v>2.8705187556858904</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>15.805994361201916</v>
+      </c>
+      <c r="C351">
+        <v>2.5986677276155565</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="B352">
+        <v>19.837106061735287</v>
+      </c>
+      <c r="C352">
+        <v>3.0983574346802021</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>0</v>
+      </c>
+      <c r="B353">
+        <v>17.571857058572121</v>
+      </c>
+      <c r="C353">
+        <v>2.1011631893260696</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>0</v>
+      </c>
+      <c r="B354">
+        <v>16.083170619651998</v>
+      </c>
+      <c r="C354">
+        <v>2.9665336243036813</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>16.345792817869583</v>
+      </c>
+      <c r="C355">
+        <v>3.5975649388552791</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>18.246461337072891</v>
+      </c>
+      <c r="C356">
+        <v>3.3158264932925126</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>17.881857181264525</v>
+      </c>
+      <c r="C357">
+        <v>4.4940781176739355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>17.205584297829223</v>
+      </c>
+      <c r="C358">
+        <v>3.2844608855329422</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="B359">
+        <v>18.207719771328147</v>
+      </c>
+      <c r="C359">
+        <v>2.7234019717832751</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>18.603666427888786</v>
+      </c>
+      <c r="C360">
+        <v>2.7222487597953648</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>18.48226039649462</v>
+      </c>
+      <c r="C361">
+        <v>4.0236580940355031</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>16.095495920169437</v>
+      </c>
+      <c r="C362">
+        <v>1.3698056022148626</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>15.192397330395632</v>
+      </c>
+      <c r="C363">
+        <v>0.83091067683919351</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>15.154685607833034</v>
+      </c>
+      <c r="C364">
+        <v>1.4537099835438978</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>12.67885505263375</v>
+      </c>
+      <c r="C365">
+        <v>2.4035850081477457</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>0.47739998949973483</v>
+      </c>
+      <c r="B366">
+        <v>12.603576969659663</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>12.828877426467693</v>
+      </c>
+      <c r="C367">
+        <v>0.21280072449502366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="B368">
+        <v>12.961754115275573</v>
+      </c>
+      <c r="C368">
+        <v>0.95715212784489545</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369">
+        <v>15.051198917708527</v>
+      </c>
+      <c r="C369">
+        <v>1.6024444859115508</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>0</v>
+      </c>
+      <c r="B370">
+        <v>14.309860132579043</v>
+      </c>
+      <c r="C370">
+        <v>1.5562419741089093</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371">
+        <v>10.944136886220763</v>
+      </c>
+      <c r="C371">
+        <v>1.1441991844594213</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>0</v>
+      </c>
+      <c r="B372">
+        <v>14.03156421685498</v>
+      </c>
+      <c r="C372">
+        <v>1.453264523389951</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373">
+        <v>11.86809853505757</v>
+      </c>
+      <c r="C373">
+        <v>0.13229616067039801</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>0</v>
+      </c>
+      <c r="B374">
+        <v>13.441869540590258</v>
+      </c>
+      <c r="C374">
+        <v>1.9144756409212067</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375">
+        <v>15.515340949351641</v>
+      </c>
+      <c r="C375">
+        <v>0.30766535708942722</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>0</v>
+      </c>
+      <c r="B376">
+        <v>13.253829961191698</v>
+      </c>
+      <c r="C376">
+        <v>0.92470301846446401</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>0</v>
+      </c>
+      <c r="B377">
+        <v>17.505981797446282</v>
+      </c>
+      <c r="C377">
+        <v>4.1341057922376923</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378">
+        <v>15.850880422223598</v>
+      </c>
+      <c r="C378">
+        <v>1.5749552590238265</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>0</v>
+      </c>
+      <c r="B379">
+        <v>17.845985775589533</v>
+      </c>
+      <c r="C379">
+        <v>1.2961722792354287</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>16.066273874016371</v>
+      </c>
+      <c r="C380">
+        <v>1.2090236861876706</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>15.479740445922785</v>
+      </c>
+      <c r="C381">
+        <v>1.7575776959590013</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>15.203665309289866</v>
+      </c>
+      <c r="C382">
+        <v>2.1965596572982844</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383">
+        <v>13.420566272225171</v>
+      </c>
+      <c r="C383">
+        <v>2.7499919877216286</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>0</v>
+      </c>
+      <c r="B384">
+        <v>16.870017391371636</v>
+      </c>
+      <c r="C384">
+        <v>1.6737502490699774</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>0</v>
+      </c>
+      <c r="B385">
+        <v>15.678886798528838</v>
+      </c>
+      <c r="C385">
+        <v>1.7143777224114847</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>0</v>
+      </c>
+      <c r="B386">
+        <v>15.748198425679997</v>
+      </c>
+      <c r="C386">
+        <v>2.509018643988921</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>0</v>
+      </c>
+      <c r="B387">
+        <v>17.048913730699748</v>
+      </c>
+      <c r="C387">
+        <v>1.4186060132073781</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>0</v>
+      </c>
+      <c r="B388">
+        <v>13.606652443477142</v>
+      </c>
+      <c r="C388">
+        <v>1.2450063717979925</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>4.6308295968150146</v>
+      </c>
+      <c r="B389">
+        <v>11.711965594115387</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>0</v>
+      </c>
+      <c r="B390">
+        <v>15.202225558660462</v>
+      </c>
+      <c r="C390">
+        <v>1.9730104705980831</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2.9975283829565562</v>
+      </c>
+      <c r="B391">
+        <v>12.341644715209865</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>7.1052144743369156E-2</v>
+      </c>
+      <c r="B392">
+        <v>12.961613833230464</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>0.62048819691121504</v>
+      </c>
+      <c r="B393">
+        <v>11.469849108195373</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>0</v>
+      </c>
+      <c r="B394">
+        <v>17.284023678644076</v>
+      </c>
+      <c r="C394">
+        <v>1.7787727482546214</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>0</v>
+      </c>
+      <c r="B395">
+        <v>16.968837805488825</v>
+      </c>
+      <c r="C395">
+        <v>1.5269560197957606</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396">
+        <v>16.748464828582229</v>
+      </c>
+      <c r="C396">
+        <v>2.8266506116495633</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>0</v>
+      </c>
+      <c r="B397">
+        <v>14.674514428201935</v>
+      </c>
+      <c r="C397">
+        <v>0.28787139041543691</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="B398">
+        <v>14.364773405764339</v>
+      </c>
+      <c r="C398">
+        <v>2.4935547218780525</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399">
+        <v>17.542436697685591</v>
+      </c>
+      <c r="C399">
+        <v>2.490167844052896</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <v>15.569469962789279</v>
+      </c>
+      <c r="C400">
+        <v>1.6058316695741</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>0.91499835063300461</v>
+      </c>
+      <c r="B401">
+        <v>9.3687247991135045</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>0</v>
+      </c>
+      <c r="B402">
+        <v>15.961065264473282</v>
+      </c>
+      <c r="C402">
+        <v>1.4286366173254659</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>0</v>
+      </c>
+      <c r="B403">
+        <v>17.685903800621588</v>
+      </c>
+      <c r="C403">
+        <v>1.343838065750538</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>0</v>
+      </c>
+      <c r="B404">
+        <v>16.563403035539725</v>
+      </c>
+      <c r="C404">
+        <v>2.7840971029592314</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>0</v>
+      </c>
+      <c r="B405">
+        <v>15.497747686010069</v>
+      </c>
+      <c r="C405">
+        <v>1.7011595076889339</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>0</v>
+      </c>
+      <c r="B406">
+        <v>17.616994768771193</v>
+      </c>
+      <c r="C406">
+        <v>1.5822874415114641</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>0</v>
+      </c>
+      <c r="B407">
+        <v>17.961183934975168</v>
+      </c>
+      <c r="C407">
+        <v>2.6329831571584772</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>0</v>
+      </c>
+      <c r="B408">
+        <v>16.310356484449525</v>
+      </c>
+      <c r="C408">
+        <v>2.3417538409326433</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>0</v>
+      </c>
+      <c r="B409">
+        <v>17.176259331051636</v>
+      </c>
+      <c r="C409">
+        <v>3.4349465376292034</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>0</v>
+      </c>
+      <c r="B410">
+        <v>17.733939254390936</v>
+      </c>
+      <c r="C410">
+        <v>2.0008089036853218</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>0</v>
+      </c>
+      <c r="B411">
+        <v>18.908155360400762</v>
+      </c>
+      <c r="C411">
+        <v>2.5880695683762975</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>0</v>
+      </c>
+      <c r="B412">
+        <v>16.185678368919788</v>
+      </c>
+      <c r="C412">
+        <v>2.1823563465753884</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>0</v>
+      </c>
+      <c r="B413">
+        <v>16.772495435101003</v>
+      </c>
+      <c r="C413">
+        <v>2.0111767438559318</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>0</v>
+      </c>
+      <c r="B414">
+        <v>15.486693815702242</v>
+      </c>
+      <c r="C414">
+        <v>2.8307604886826403</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>0</v>
+      </c>
+      <c r="B415">
+        <v>16.556599473540039</v>
+      </c>
+      <c r="C415">
+        <v>3.177407299478153</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>0</v>
+      </c>
+      <c r="B416">
+        <v>18.456821627306525</v>
+      </c>
+      <c r="C416">
+        <v>2.0960653531778792</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>0</v>
+      </c>
+      <c r="B417">
+        <v>15.04891577990993</v>
+      </c>
+      <c r="C417">
+        <v>1.6852362856261547</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>0</v>
+      </c>
+      <c r="B418">
+        <v>15.472477777057762</v>
+      </c>
+      <c r="C418">
+        <v>1.6823313060213494</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>0</v>
+      </c>
+      <c r="B419">
+        <v>16.717876003995443</v>
+      </c>
+      <c r="C419">
+        <v>1.7758690649145665</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>0</v>
+      </c>
+      <c r="B420">
+        <v>16.051253811638485</v>
+      </c>
+      <c r="C420">
+        <v>1.6606955462256177</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>0</v>
+      </c>
+      <c r="B421">
+        <v>16.504854368932044</v>
+      </c>
+      <c r="C421">
+        <v>1.4221677543939175</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>0</v>
+      </c>
+      <c r="B422">
+        <v>21.010559305417704</v>
+      </c>
+      <c r="C422">
+        <v>3.4878487556079865</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>0</v>
+      </c>
+      <c r="B423">
+        <v>17.512640995721515</v>
+      </c>
+      <c r="C423">
+        <v>2.3238098351641008</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>0</v>
+      </c>
+      <c r="B424">
+        <v>17.255963586246644</v>
+      </c>
+      <c r="C424">
+        <v>2.3338698333437597</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>0</v>
+      </c>
+      <c r="B425">
+        <v>18.328152998468415</v>
+      </c>
+      <c r="C425">
+        <v>2.8125248136266432</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>0</v>
+      </c>
+      <c r="B426">
+        <v>16.097177287285191</v>
+      </c>
+      <c r="C426">
+        <v>1.4516997821877247</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>0</v>
+      </c>
+      <c r="B427">
+        <v>16.129001763961863</v>
+      </c>
+      <c r="C427">
+        <v>2.4589590545315669</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>0</v>
+      </c>
+      <c r="B428">
+        <v>20.159280613611497</v>
+      </c>
+      <c r="C428">
+        <v>2.6708728767177869</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>0</v>
+      </c>
+      <c r="B429">
+        <v>17.272649946064654</v>
+      </c>
+      <c r="C429">
+        <v>2.6646767938819145</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>0</v>
+      </c>
+      <c r="B430">
+        <v>19.098056181283845</v>
+      </c>
+      <c r="C430">
+        <v>2.0831317623942178</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>0</v>
+      </c>
+      <c r="B431">
+        <v>17.423943409776601</v>
+      </c>
+      <c r="C431">
+        <v>2.8766825252270483</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>0</v>
+      </c>
+      <c r="B432">
+        <v>18.589412435274198</v>
+      </c>
+      <c r="C432">
+        <v>2.6493235110268425</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>0</v>
+      </c>
+      <c r="B433">
+        <v>17.987682850389302</v>
+      </c>
+      <c r="C433">
+        <v>2.2342297439150562</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>0</v>
+      </c>
+      <c r="B434">
+        <v>17.196768382261634</v>
+      </c>
+      <c r="C434">
+        <v>2.7202060165860162</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>0</v>
+      </c>
+      <c r="B435">
+        <v>18.15558219256522</v>
+      </c>
+      <c r="C435">
+        <v>3.5318638865772378</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>0</v>
+      </c>
+      <c r="B436">
+        <v>18.539885292136081</v>
+      </c>
+      <c r="C436">
+        <v>2.3905184073810979</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>0</v>
+      </c>
+      <c r="B437">
+        <v>16.674791859126234</v>
+      </c>
+      <c r="C437">
+        <v>3.8245944833420906</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>0</v>
+      </c>
+      <c r="B438">
+        <v>18.280986975234676</v>
+      </c>
+      <c r="C438">
+        <v>2.5895636825719768</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>0</v>
+      </c>
+      <c r="B439">
+        <v>19.174929748597656</v>
+      </c>
+      <c r="C439">
+        <v>3.2693038402668773</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>0</v>
+      </c>
+      <c r="B440">
+        <v>19.904489535814481</v>
+      </c>
+      <c r="C440">
+        <v>2.8579310987977649</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>0</v>
+      </c>
+      <c r="B441">
+        <v>18.683839301242536</v>
+      </c>
+      <c r="C441">
+        <v>2.304585595856925</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>0</v>
+      </c>
+      <c r="B442">
+        <v>20.283861937975942</v>
+      </c>
+      <c r="C442">
+        <v>5.1201498137997925</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>0</v>
+      </c>
+      <c r="B443">
+        <v>20.340993316486024</v>
+      </c>
+      <c r="C443">
+        <v>4.3896545659971888</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>0</v>
+      </c>
+      <c r="B444">
+        <v>20.501792539949022</v>
+      </c>
+      <c r="C444">
+        <v>3.1870233158726302</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>0</v>
+      </c>
+      <c r="B445">
+        <v>17.367251835805405</v>
+      </c>
+      <c r="C445">
+        <v>1.4652903551657059</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>0</v>
+      </c>
+      <c r="B446">
+        <v>19.202498278376616</v>
+      </c>
+      <c r="C446">
+        <v>3.2253339741309133</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>0</v>
+      </c>
+      <c r="B447">
+        <v>21.308158391901433</v>
+      </c>
+      <c r="C447">
+        <v>4.2731352325997474</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>0</v>
+      </c>
+      <c r="B448">
+        <v>19.488871153122247</v>
+      </c>
+      <c r="C448">
+        <v>2.1742856295938404</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>0</v>
+      </c>
+      <c r="B449">
+        <v>19.678229857795831</v>
+      </c>
+      <c r="C449">
+        <v>2.6908872089650071</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>0</v>
+      </c>
+      <c r="B450">
+        <v>21.843753021796974</v>
+      </c>
+      <c r="C450">
+        <v>4.0544794585962158</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>0</v>
+      </c>
+      <c r="B451">
+        <v>19.268445591865753</v>
+      </c>
+      <c r="C451">
+        <v>3.7224644716568158</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>0</v>
+      </c>
+      <c r="B452">
+        <v>16.904302466226493</v>
+      </c>
+      <c r="C452">
+        <v>2.2820486006157088</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>0</v>
+      </c>
+      <c r="B453">
+        <v>17.306321876879455</v>
+      </c>
+      <c r="C453">
+        <v>2.7974956678652219</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>0</v>
+      </c>
+      <c r="B454">
+        <v>15.734948648410329</v>
+      </c>
+      <c r="C454">
+        <v>3.1815615353097266</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>0</v>
+      </c>
+      <c r="B455">
+        <v>18.748242346440648</v>
+      </c>
+      <c r="C455">
+        <v>2.2985904202392051</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>0</v>
+      </c>
+      <c r="B456">
+        <v>17.850783208775919</v>
+      </c>
+      <c r="C456">
+        <v>1.9484893125211202</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>0</v>
+      </c>
+      <c r="B457">
+        <v>15.725918606506228</v>
+      </c>
+      <c r="C457">
+        <v>3.2425299923740014</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>0</v>
+      </c>
+      <c r="B458">
+        <v>16.726325901440411</v>
+      </c>
+      <c r="C458">
+        <v>2.2124480725990039</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>0</v>
+      </c>
+      <c r="B459">
+        <v>15.746311974056812</v>
+      </c>
+      <c r="C459">
+        <v>1.7490409811113223</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>0</v>
+      </c>
+      <c r="B460">
+        <v>17.432093986571847</v>
+      </c>
+      <c r="C460">
+        <v>3.0235334583654616</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>0</v>
+      </c>
+      <c r="B461">
+        <v>16.522533994662034</v>
+      </c>
+      <c r="C461">
+        <v>2.0524610211446803</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>0</v>
+      </c>
+      <c r="B462">
+        <v>16.445929370297634</v>
+      </c>
+      <c r="C462">
+        <v>2.0706661383450089</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>0</v>
+      </c>
+      <c r="B463">
+        <v>15.055861985138735</v>
+      </c>
+      <c r="C463">
+        <v>1.9686872443587744</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>0</v>
+      </c>
+      <c r="B464">
+        <v>16.331926139221654</v>
+      </c>
+      <c r="C464">
+        <v>3.1825427913944777</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>0</v>
+      </c>
+      <c r="B465">
+        <v>15.839707405977519</v>
+      </c>
+      <c r="C465">
+        <v>2.6914310900110809</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>0</v>
+      </c>
+      <c r="B466">
+        <v>15.162581913514419</v>
+      </c>
+      <c r="C466">
+        <v>2.2490557491762275</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>0</v>
+      </c>
+      <c r="B467">
+        <v>16.701196269239318</v>
+      </c>
+      <c r="C467">
+        <v>2.4787377689818864</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>0</v>
+      </c>
+      <c r="B468">
+        <v>19.239990943518908</v>
+      </c>
+      <c r="C468">
+        <v>3.3313530344049527</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>0</v>
+      </c>
+      <c r="B469">
+        <v>18.776200942949007</v>
+      </c>
+      <c r="C469">
+        <v>4.3431459747373342</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>0</v>
+      </c>
+      <c r="B470">
+        <v>17.941749645820256</v>
+      </c>
+      <c r="C470">
+        <v>3.1950435928441698</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>0</v>
+      </c>
+      <c r="B471">
+        <v>18.952641944283766</v>
+      </c>
+      <c r="C471">
+        <v>2.3086253358087303</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>0</v>
+      </c>
+      <c r="B472">
+        <v>16.413094507240618</v>
+      </c>
+      <c r="C472">
+        <v>1.8186414358455816</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>0</v>
+      </c>
+      <c r="B473">
+        <v>19.604923432622432</v>
+      </c>
+      <c r="C473">
+        <v>2.3187446050669784</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>0</v>
+      </c>
+      <c r="B474">
+        <v>17.374347933725478</v>
+      </c>
+      <c r="C474">
+        <v>3.9341863237467503</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>0</v>
+      </c>
+      <c r="B475">
+        <v>22.132152212846009</v>
+      </c>
+      <c r="C475">
+        <v>3.3059932566006167</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>0</v>
+      </c>
+      <c r="B476">
+        <v>19.097782635639906</v>
+      </c>
+      <c r="C476">
+        <v>4.4878686810904265</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>0</v>
+      </c>
+      <c r="B477">
+        <v>18.901494070443796</v>
+      </c>
+      <c r="C477">
+        <v>5.3680840090968163</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>0</v>
+      </c>
+      <c r="B478">
+        <v>18.398206081987631</v>
+      </c>
+      <c r="C478">
+        <v>3.0036984887524953</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>0</v>
+      </c>
+      <c r="B479">
+        <v>18.160397779288832</v>
+      </c>
+      <c r="C479">
+        <v>2.6765595831952771</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>0</v>
+      </c>
+      <c r="B480">
+        <v>18.959936317920267</v>
+      </c>
+      <c r="C480">
+        <v>2.9686930478472524</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>0</v>
+      </c>
+      <c r="B481">
+        <v>18.724508052367444</v>
+      </c>
+      <c r="C481">
+        <v>2.5543626593929805</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>0</v>
+      </c>
+      <c r="B482">
+        <v>20.178205492132872</v>
+      </c>
+      <c r="C482">
+        <v>3.9094000772409099</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>0</v>
+      </c>
+      <c r="B483">
+        <v>18.238066549532466</v>
+      </c>
+      <c r="C483">
+        <v>3.1585554137116758</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>0</v>
+      </c>
+      <c r="B484">
+        <v>18.043135461869301</v>
+      </c>
+      <c r="C484">
+        <v>3.891528414858668</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>0</v>
+      </c>
+      <c r="B485">
+        <v>16.854078586830632</v>
+      </c>
+      <c r="C485">
+        <v>4.0811291795745799</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>0</v>
+      </c>
+      <c r="B486">
+        <v>18.584171666132374</v>
+      </c>
+      <c r="C486">
+        <v>3.06385577113896</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>0</v>
+      </c>
+      <c r="B487">
+        <v>20.246903008328907</v>
+      </c>
+      <c r="C487">
+        <v>3.4720683835783346</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>0</v>
+      </c>
+      <c r="B488">
+        <v>19.26752212929199</v>
+      </c>
+      <c r="C488">
+        <v>1.5397946008594088</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>0</v>
+      </c>
+      <c r="B489">
+        <v>19.417346738319573</v>
+      </c>
+      <c r="C489">
+        <v>2.8358877385391832</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>0</v>
+      </c>
+      <c r="B490">
+        <v>18.544129355082912</v>
+      </c>
+      <c r="C490">
+        <v>3.9116767374851578</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>0</v>
+      </c>
+      <c r="B491">
+        <v>19.854507565645434</v>
+      </c>
+      <c r="C491">
+        <v>4.8386766093115092</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>0</v>
+      </c>
+      <c r="B492">
+        <v>17.106822076731607</v>
+      </c>
+      <c r="C492">
+        <v>2.5586863815710812</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>0</v>
+      </c>
+      <c r="B493">
+        <v>21.052220180138363</v>
+      </c>
+      <c r="C493">
+        <v>5.5833442017870158</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>0</v>
+      </c>
+      <c r="B494">
+        <v>18.652526177064946</v>
+      </c>
+      <c r="C494">
+        <v>3.1063498696916501</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>0</v>
+      </c>
+      <c r="B495">
+        <v>16.195463069832229</v>
+      </c>
+      <c r="C495">
+        <v>3.5884398031342024</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>0</v>
+      </c>
+      <c r="B496">
+        <v>21.313366658954063</v>
+      </c>
+      <c r="C496">
+        <v>4.5992369903628383</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>0</v>
+      </c>
+      <c r="B497">
+        <v>17.752261644449401</v>
+      </c>
+      <c r="C497">
+        <v>2.3316101641431639</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>0</v>
+      </c>
+      <c r="B498">
+        <v>14.974219225170362</v>
+      </c>
+      <c r="C498">
+        <v>2.5885406080145392</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>0</v>
+      </c>
+      <c r="B499">
+        <v>15.620502701773123</v>
+      </c>
+      <c r="C499">
+        <v>1.9307721549921733</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>0</v>
+      </c>
+      <c r="B500">
+        <v>14.793389241691814</v>
+      </c>
+      <c r="C500">
+        <v>2.7166584155349711</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>0</v>
+      </c>
+      <c r="B501">
+        <v>18.068888872310556</v>
+      </c>
+      <c r="C501">
+        <v>2.9353153188590908</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>0</v>
+      </c>
+      <c r="B502">
+        <v>15.181747416323843</v>
+      </c>
+      <c r="C502">
+        <v>1.85514097339776</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>0</v>
+      </c>
+      <c r="B503">
+        <v>16.633336746482648</v>
+      </c>
+      <c r="C503">
+        <v>3.0595005011123884</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>0</v>
+      </c>
+      <c r="B504">
+        <v>14.793417759307864</v>
+      </c>
+      <c r="C504">
+        <v>3.0771868617163314</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>0</v>
+      </c>
+      <c r="B505">
+        <v>14.560439560439562</v>
+      </c>
+      <c r="C505">
+        <v>2.9053100804840994</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>0</v>
+      </c>
+      <c r="B506">
+        <v>16.195363779173533</v>
+      </c>
+      <c r="C506">
+        <v>1.6744728662425001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>0</v>
+      </c>
+      <c r="B507">
+        <v>14.680829230357745</v>
+      </c>
+      <c r="C507">
+        <v>2.4238087015365011</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>0</v>
+      </c>
+      <c r="B508">
+        <v>15.014344749317743</v>
+      </c>
+      <c r="C508">
+        <v>1.2326534549273334</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>0</v>
+      </c>
+      <c r="B509">
+        <v>18.030720096256438</v>
+      </c>
+      <c r="C509">
+        <v>2.4820654757758982</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>0</v>
+      </c>
+      <c r="B510">
+        <v>17.17594240803043</v>
+      </c>
+      <c r="C510">
+        <v>2.8734675223065795</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>0</v>
+      </c>
+      <c r="B511">
+        <v>17.236466394598146</v>
+      </c>
+      <c r="C511">
+        <v>3.1122780426887178</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>0</v>
+      </c>
+      <c r="B512">
+        <v>17.251039273922473</v>
+      </c>
+      <c r="C512">
+        <v>2.9820292259603272</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>0</v>
+      </c>
+      <c r="B513">
+        <v>17.786654728798165</v>
+      </c>
+      <c r="C513">
+        <v>2.9915073329925006</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>0</v>
+      </c>
+      <c r="B514">
+        <v>19.696978950557671</v>
+      </c>
+      <c r="C514">
+        <v>3.9594863756567773</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>0</v>
+      </c>
+      <c r="B515">
+        <v>16.704234723988424</v>
+      </c>
+      <c r="C515">
+        <v>1.7131516897982084</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>0</v>
+      </c>
+      <c r="B516">
+        <v>20.649396383215109</v>
+      </c>
+      <c r="C516">
+        <v>3.9002707270661898</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>0</v>
+      </c>
+      <c r="B517">
+        <v>18.020820692645366</v>
+      </c>
+      <c r="C517">
+        <v>2.4003320186662447</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>0</v>
+      </c>
+      <c r="B518">
+        <v>17.690479886078229</v>
+      </c>
+      <c r="C518">
+        <v>3.3206904059244273</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>0</v>
+      </c>
+      <c r="B519">
+        <v>17.505250775806669</v>
+      </c>
+      <c r="C519">
+        <v>3.7515923633007366</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>0</v>
+      </c>
+      <c r="B520">
+        <v>15.48806583402366</v>
+      </c>
+      <c r="C520">
+        <v>2.3584873926212104</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>0</v>
+      </c>
+      <c r="B521">
+        <v>15.526692604752746</v>
+      </c>
+      <c r="C521">
+        <v>2.1034326612943652</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>0</v>
+      </c>
+      <c r="B522">
+        <v>19.513203770115382</v>
+      </c>
+      <c r="C522">
+        <v>3.0248010407134513</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>0</v>
+      </c>
+      <c r="B523">
+        <v>20.566412041286021</v>
+      </c>
+      <c r="C523">
+        <v>4.2801243946175598</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>0</v>
+      </c>
+      <c r="B524">
+        <v>16.186543773643301</v>
+      </c>
+      <c r="C524">
+        <v>2.9966697724646321</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>0</v>
+      </c>
+      <c r="B525">
+        <v>18.178901829255022</v>
+      </c>
+      <c r="C525">
+        <v>3.8251569422049698</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>0</v>
+      </c>
+      <c r="B526">
+        <v>18.201533243441123</v>
+      </c>
+      <c r="C526">
+        <v>3.8061940626878519</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>0</v>
+      </c>
+      <c r="B527">
+        <v>19.569989873738173</v>
+      </c>
+      <c r="C527">
+        <v>2.5325543495459004</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>0</v>
+      </c>
+      <c r="B528">
+        <v>18.844418713657522</v>
+      </c>
+      <c r="C528">
+        <v>3.7474894806692709</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>0</v>
+      </c>
+      <c r="B529">
+        <v>17.35986786969773</v>
+      </c>
+      <c r="C529">
+        <v>2.1823374926374002</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>0</v>
+      </c>
+      <c r="B530">
+        <v>18.87938717425337</v>
+      </c>
+      <c r="C530">
+        <v>4.5393701164686</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>0</v>
+      </c>
+      <c r="B531">
+        <v>19.280134611248496</v>
+      </c>
+      <c r="C531">
+        <v>2.7303238121957714</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>0</v>
+      </c>
+      <c r="B532">
+        <v>19.298204282822876</v>
+      </c>
+      <c r="C532">
+        <v>3.0504087863544154</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>0</v>
+      </c>
+      <c r="B533">
+        <v>16.119885193797938</v>
+      </c>
+      <c r="C533">
+        <v>3.7284321923786856</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>0</v>
+      </c>
+      <c r="B534">
+        <v>19.564623816928172</v>
+      </c>
+      <c r="C534">
+        <v>3.8547273396912307</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>0</v>
+      </c>
+      <c r="B535">
+        <v>15.391636446784347</v>
+      </c>
+      <c r="C535">
+        <v>2.1045888237772994</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>0</v>
+      </c>
+      <c r="B536">
+        <v>20.731739277395253</v>
+      </c>
+      <c r="C536">
+        <v>3.9477624761528851</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>0</v>
+      </c>
+      <c r="B537">
+        <v>18.925946735588266</v>
+      </c>
+      <c r="C537">
+        <v>5.2821665355657936</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>0</v>
+      </c>
+      <c r="B538">
+        <v>22.606880656811001</v>
+      </c>
+      <c r="C538">
+        <v>4.184979551790045</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>0</v>
+      </c>
+      <c r="B539">
+        <v>18.857945736434107</v>
+      </c>
+      <c r="C539">
+        <v>2.9527131782945739</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>0</v>
+      </c>
+      <c r="B540">
+        <v>19.878258502728048</v>
+      </c>
+      <c r="C540">
+        <v>3.6367010573649496</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>0</v>
+      </c>
+      <c r="B541">
+        <v>18.929871831910045</v>
+      </c>
+      <c r="C541">
+        <v>2.7541989220640022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="B1:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -84631,26 +90600,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="B2" s="24"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
@@ -84672,44 +90641,44 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="20">
         <f>AVERAGE(Average_RPD!H3:'Average_RPD'!H47)</f>
         <v>0.41024816943516212</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="24">
         <f>AVERAGE(Average_RPD!C3:'Average_RPD'!C47)</f>
         <v>0.28385528942293908</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="20">
         <f>AVERAGE(Average_RPD!I3:'Average_RPD'!I47)</f>
         <v>12.017001941618888</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="24">
         <f>AVERAGE(Average_RPD!D3:'Average_RPD'!D47)</f>
         <v>13.232897801663597</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="20">
         <f>AVERAGE(Average_RPD!J3:'Average_RPD'!J47)</f>
         <v>0.20668206998863173</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="20">
         <f>AVERAGE(Average_RPD!E3:'Average_RPD'!E47)</f>
         <v>0.87467410743981633</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="15">
         <f>AVERAGE(Average_RPD!H48:'Average_RPD'!H92)</f>
         <v>3.5064718588360072E-3</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="25">
         <f>AVERAGE(Average_RPD!C48:'Average_RPD'!C92)</f>
         <v>0</v>
       </c>
@@ -84717,7 +90686,7 @@
         <f>AVERAGE(Average_RPD!I48:'Average_RPD'!I92)</f>
         <v>10.896599705353584</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="25">
         <f>AVERAGE(Average_RPD!D48:'Average_RPD'!D92)</f>
         <v>12.676481960649468</v>
       </c>
@@ -84732,14 +90701,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="15">
         <f>AVERAGE(Average_RPD!H93:'Average_RPD'!H137)</f>
         <v>2.6781386386159158E-3</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="25">
         <f>AVERAGE(Average_RPD!C93:'Average_RPD'!C137)</f>
         <v>0</v>
       </c>
@@ -84747,7 +90716,7 @@
         <f>AVERAGE(Average_RPD!I93:'Average_RPD'!I137)</f>
         <v>10.114923725018928</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="25">
         <f>AVERAGE(Average_RPD!D93:'Average_RPD'!D137)</f>
         <v>11.512103928885434</v>
       </c>
@@ -84762,14 +90731,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="15">
         <f>AVERAGE(Average_RPD!H138:'Average_RPD'!H182)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="25">
         <f>AVERAGE(Average_RPD!C138:'Average_RPD'!C182)</f>
         <v>0</v>
       </c>
@@ -84777,7 +90746,7 @@
         <f>AVERAGE(Average_RPD!I138:'Average_RPD'!I182)</f>
         <v>9.0471635103481276</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <f>AVERAGE(Average_RPD!D138:'Average_RPD'!D182)</f>
         <v>10.413341910394957</v>
       </c>
@@ -84792,14 +90761,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="15">
         <f>AVERAGE(Average_RPD!H183:'Average_RPD'!H227)</f>
         <v>0.70938335610652581</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="25">
         <f>AVERAGE(Average_RPD!C183:'Average_RPD'!C227)</f>
         <v>0.56814926936345334</v>
       </c>
@@ -84807,7 +90776,7 @@
         <f>AVERAGE(Average_RPD!I183:'Average_RPD'!I227)</f>
         <v>14.517142227942804</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="25">
         <f>AVERAGE(Average_RPD!D183:'Average_RPD'!D227)</f>
         <v>14.608203035401216</v>
       </c>
@@ -84822,14 +90791,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="15">
         <f>AVERAGE(Average_RPD!H228:'Average_RPD'!H272)</f>
         <v>5.2055933204127491E-2</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="25">
         <f>AVERAGE(Average_RPD!C228:'Average_RPD'!C272)</f>
         <v>2.7111987971330932E-3</v>
       </c>
@@ -84837,7 +90806,7 @@
         <f>AVERAGE(Average_RPD!I228:'Average_RPD'!I272)</f>
         <v>16.528288096493345</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <f>AVERAGE(Average_RPD!D228:'Average_RPD'!D272)</f>
         <v>17.299086279103346</v>
       </c>
@@ -84852,14 +90821,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="15">
         <f>AVERAGE(Average_RPD!H273:'Average_RPD'!H317)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="25">
         <f>AVERAGE(Average_RPD!C273:'Average_RPD'!C317)</f>
         <v>0</v>
       </c>
@@ -84867,7 +90836,7 @@
         <f>AVERAGE(Average_RPD!I273:'Average_RPD'!I317)</f>
         <v>16.134503398271139</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="25">
         <f>AVERAGE(Average_RPD!D273:'Average_RPD'!D317)</f>
         <v>16.932003750487432</v>
       </c>
@@ -84882,14 +90851,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="15">
         <f>AVERAGE(Average_RPD!H318:'Average_RPD'!H362)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="25">
         <f>AVERAGE(Average_RPD!C318:'Average_RPD'!C362)</f>
         <v>0</v>
       </c>
@@ -84897,7 +90866,7 @@
         <f>AVERAGE(Average_RPD!I318:'Average_RPD'!I362)</f>
         <v>14.558056735686087</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <f>AVERAGE(Average_RPD!D318:'Average_RPD'!D362)</f>
         <v>15.72854520063035</v>
       </c>
@@ -84912,14 +90881,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="15">
         <f>AVERAGE(Average_RPD!H363:'Average_RPD'!H407)</f>
         <v>0.60894638846392957</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="25">
         <f>AVERAGE(Average_RPD!C363:'Average_RPD'!C407)</f>
         <v>0.21582881470130874</v>
       </c>
@@ -84927,7 +90896,7 @@
         <f>AVERAGE(Average_RPD!I363:'Average_RPD'!I407)</f>
         <v>14.625087192671799</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="25">
         <f>AVERAGE(Average_RPD!D363:'Average_RPD'!D407)</f>
         <v>14.795354738212387</v>
       </c>
@@ -84942,14 +90911,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="15">
         <f>AVERAGE(Average_RPD!H408:'Average_RPD'!H452)</f>
         <v>2.410891034360727E-3</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="25">
         <f>AVERAGE(Average_RPD!C408:'Average_RPD'!C452)</f>
         <v>0</v>
       </c>
@@ -84957,7 +90926,7 @@
         <f>AVERAGE(Average_RPD!I408:'Average_RPD'!I452)</f>
         <v>17.124100824378527</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="25">
         <f>AVERAGE(Average_RPD!D408:'Average_RPD'!D452)</f>
         <v>18.091182475842807</v>
       </c>
@@ -84972,14 +90941,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="15">
         <f>AVERAGE(Average_RPD!H453:'Average_RPD'!H497)</f>
         <v>7.5864300989363356E-3</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="25">
         <f>AVERAGE(Average_RPD!C453:'Average_RPD'!C497)</f>
         <v>0</v>
       </c>
@@ -84987,7 +90956,7 @@
         <f>AVERAGE(Average_RPD!I453:'Average_RPD'!I497)</f>
         <v>16.857375199593502</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="25">
         <f>AVERAGE(Average_RPD!D453:'Average_RPD'!D497)</f>
         <v>18.010241717997815</v>
       </c>
@@ -85002,14 +90971,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="15">
         <f>AVERAGE(Average_RPD!H498:'Average_RPD'!H542)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="26">
         <f>AVERAGE(Average_RPD!C498:'Average_RPD'!C542)</f>
         <v>0</v>
       </c>
@@ -85017,7 +90986,7 @@
         <f>AVERAGE(Average_RPD!I498:'Average_RPD'!I542)</f>
         <v>16.64396517270394</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="26">
         <f>AVERAGE(Average_RPD!D498:'Average_RPD'!D542)</f>
         <v>17.642597090244614</v>
       </c>
@@ -85031,31 +91000,31 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
         <f>AVERAGE(C3:C14)</f>
         <v>0.14973464823670782</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="19">
         <f t="shared" ref="D15:H15" si="0">AVERAGE(D3:D14)</f>
         <v>8.9212047690402863E-2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <f t="shared" si="0"/>
         <v>14.088683977506721</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="19">
         <f t="shared" si="0"/>
         <v>15.078503324126117</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="19">
         <f t="shared" si="0"/>
         <v>1.5162891262107703</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="19">
         <f t="shared" si="0"/>
         <v>2.2365628596568987</v>
       </c>
